--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -42,9 +42,9 @@
 x,y,z :
 x:伤害加成 
   0 固定伤害 
-  1 物理攻击的百分比
-  3 生命加成的百分比
-y:对应效果值 ， 0 对应的是数值 其他的是百分比
+  1 物理攻击的千分比
+  3 生命加成的千分比
+y:对应效果值 ， x:0 对应的是数值 其他的是千分比
 z:效果类型 1:物理 2:法强</t>
         </r>
       </text>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -74,6 +74,9 @@
     <t>finalEffectType</t>
   </si>
   <si>
+    <t>effectResId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -98,10 +101,16 @@
     <t>最终的效果类型 1 物理 2 法强</t>
   </si>
   <si>
+    <t>效果资源id</t>
+  </si>
+  <si>
+    <t>上官翎普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>0,150,1|1,200,1|3,100,2</t>
+  </si>
+  <si>
     <t>上官翎技能1投掷物效果计算</t>
-  </si>
-  <si>
-    <t>0,150,1|1,200,1|3,100,2</t>
   </si>
 </sst>
 </file>
@@ -109,9 +118,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -124,6 +133,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -131,12 +214,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -144,8 +236,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,115 +270,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -277,6 +281,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -287,19 +296,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,163 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,25 +491,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,43 +523,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +558,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,21 +1098,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="6" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,48 +1132,57 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:6">
+    <row r="3" ht="93" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1171,22 +1190,43 @@
         <v>4001001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>15008004</v>
+      </c>
     </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4001002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>15008005</v>
+      </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="1"/>
@@ -1212,7 +1252,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1229,7 +1269,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="23325" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -107,10 +107,16 @@
     <t>上官翎普通攻击投掷物效果计算</t>
   </si>
   <si>
-    <t>0,150,1|1,200,1|3,100,2</t>
+    <t>1,1000,1</t>
   </si>
   <si>
     <t>上官翎技能1投掷物效果计算</t>
+  </si>
+  <si>
+    <t>0,1000,1|1,1500,1|3,1000,2</t>
+  </si>
+  <si>
+    <t>怪物1投掷物效果计算</t>
   </si>
 </sst>
 </file>
@@ -118,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -133,22 +139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +154,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -171,76 +228,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,28 +258,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -281,11 +292,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,25 +302,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,157 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,21 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,21 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -587,6 +563,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1107,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1219,7 +1225,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1233,10 +1239,28 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="3:5">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4002001</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15008005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="11940"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,38 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+1 投掷物碰到的目标
+2 区域选取的目标
+3 buff 碰到的目标</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 x,y,z :
 x:伤害加成 
   0 固定伤害 
   1 物理攻击的千分比
   3 生命加成的千分比
 y:对应效果值 ， x:0 对应的是数值 其他的是千分比
-z:效果类型 1:物理 2:法强</t>
+z:效果类型 1:物理 2:法强
+</t>
         </r>
       </text>
     </comment>
@@ -54,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -68,6 +93,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>effectTargetType</t>
+  </si>
+  <si>
     <t>addedValueGroup</t>
   </si>
   <si>
@@ -95,10 +123,13 @@
     <t>技能介绍</t>
   </si>
   <si>
+    <t>施加效果的目标类型</t>
+  </si>
+  <si>
     <t>附加伤害组</t>
   </si>
   <si>
-    <t>最终的效果类型 1 物理 2 法强</t>
+    <t xml:space="preserve">最终的效果类型 1 物理伤害 2 法强伤害 </t>
   </si>
   <si>
     <t>效果资源id</t>
@@ -114,6 +145,21 @@
   </si>
   <si>
     <t>0,1000,1|1,1500,1|3,1000,2</t>
+  </si>
+  <si>
+    <t>上官翎技能2击晕伤害计算</t>
+  </si>
+  <si>
+    <t>1,500,1</t>
+  </si>
+  <si>
+    <t>上官翎技能3位移伤害计算</t>
+  </si>
+  <si>
+    <t>1,2000,1</t>
+  </si>
+  <si>
+    <t>上官翎技能4流血间隔伤害计算</t>
   </si>
   <si>
     <t>怪物1投掷物效果计算</t>
@@ -124,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -138,10 +184,86 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,13 +275,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -168,115 +315,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +539,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,11 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,26 +592,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,17 +620,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,22 +1150,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,54 +1188,63 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:7">
+    <row r="3" ht="93" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
         <v>15</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1196,22 +1252,25 @@
         <v>4001001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15008004</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1219,46 +1278,131 @@
         <v>4001002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>15008005</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4001003</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>15008005</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
+        <v>4001004</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>15008005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>4001005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>15008005</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>4002001</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H10">
         <v>15008005</v>
       </c>
     </row>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Zxy:</t>
+          <t xml:space="preserve">Zxy:
+</t>
         </r>
         <r>
           <rPr>
@@ -38,10 +39,9 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-1 投掷物碰到的目标
-2 区域选取的目标
-3 buff 碰到的目标</t>
+          <t>0 选取的目标
+1 技能释放单位
+2 技能目标单位</t>
         </r>
       </text>
     </comment>
@@ -68,6 +68,7 @@
   0 固定伤害 
   1 物理攻击的千分比
   3 生命加成的千分比
+  20 造成伤害的千分比
 y:对应效果值 ， x:0 对应的是数值 其他的是千分比
 z:效果类型 1:物理 2:法强
 </t>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -144,7 +145,7 @@
     <t>上官翎技能1投掷物效果计算</t>
   </si>
   <si>
-    <t>0,1000,1|1,1500,1|3,1000,2</t>
+    <t>0,10,1|1,400,1|3,100,2</t>
   </si>
   <si>
     <t>上官翎技能2击晕伤害计算</t>
@@ -156,13 +157,28 @@
     <t>上官翎技能3位移伤害计算</t>
   </si>
   <si>
-    <t>1,2000,1</t>
-  </si>
-  <si>
     <t>上官翎技能4流血间隔伤害计算</t>
   </si>
   <si>
-    <t>怪物1投掷物效果计算</t>
+    <t>怪物1普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>刀疤技能 1 投掷物效果计算</t>
+  </si>
+  <si>
+    <t>日炎效果计算</t>
+  </si>
+  <si>
+    <t>3环满层效果计算</t>
+  </si>
+  <si>
+    <t>1,3000,1</t>
+  </si>
+  <si>
+    <t>概率回血效果计算</t>
+  </si>
+  <si>
+    <t>20,-1000,1</t>
   </si>
 </sst>
 </file>
@@ -170,15 +186,98 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,145 +291,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -338,8 +349,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,31 +364,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,151 +514,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,11 +564,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,32 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +627,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -647,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,73 +681,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -734,63 +756,66 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -801,6 +826,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1150,17 +1181,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="5" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
@@ -1170,7 +1202,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1179,7 +1211,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1205,7 +1237,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
@@ -1222,22 +1254,22 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
@@ -1251,16 +1283,16 @@
       <c r="B4">
         <v>4001001</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4">
@@ -1277,16 +1309,16 @@
       <c r="B5">
         <v>4001002</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G5">
@@ -1303,16 +1335,16 @@
       <c r="B6">
         <v>4001003</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G6">
@@ -1329,17 +1361,17 @@
       <c r="B7">
         <v>4001004</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1355,16 +1387,16 @@
       <c r="B8">
         <v>4001005</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G8">
@@ -1375,34 +1407,144 @@
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="3:6">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <v>4002001</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>15008005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4002010</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H13">
+        <v>15008005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4002020</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>15008005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>4002021</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>15008005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>4002022</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>15008005</v>
       </c>
     </row>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="11820" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Zxy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 受伤挂点(hit_pos) 
+1 自定义挂点(需要自己传)
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -106,6 +130,15 @@
     <t>effectResId</t>
   </si>
   <si>
+    <t>effectPosType</t>
+  </si>
+  <si>
+    <t>isEffectFollowTarget</t>
+  </si>
+  <si>
+    <t>effectPosName</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -136,16 +169,28 @@
     <t>效果资源id</t>
   </si>
   <si>
+    <t>产生效果点位置类型</t>
+  </si>
+  <si>
+    <t>特效是否跟随目标</t>
+  </si>
+  <si>
+    <t>效果点节点名称</t>
+  </si>
+  <si>
     <t>上官翎普通攻击投掷物效果计算</t>
   </si>
   <si>
     <t>1,1000,1</t>
   </si>
   <si>
+    <t>hit_pos</t>
+  </si>
+  <si>
     <t>上官翎技能1投掷物效果计算</t>
   </si>
   <si>
-    <t>0,10,1|1,400,1|3,100,2</t>
+    <t>0,100,1|1,400,1|3,100,2</t>
   </si>
   <si>
     <t>上官翎技能2击晕伤害计算</t>
@@ -154,21 +199,33 @@
     <t>1,500,1</t>
   </si>
   <si>
-    <t>上官翎技能3位移伤害计算</t>
-  </si>
-  <si>
-    <t>上官翎技能4流血间隔伤害计算</t>
+    <t>刀疤技能位移伤害计算</t>
+  </si>
+  <si>
+    <t>唐依技能4流血间隔伤害计算</t>
   </si>
   <si>
     <t>怪物1普通攻击投掷物效果计算</t>
   </si>
   <si>
+    <t>怪物1技能1投掷物效果计算</t>
+  </si>
+  <si>
+    <t>0,100,1|1,400,1</t>
+  </si>
+  <si>
+    <t>刀疤普通攻击投掷物效果计算</t>
+  </si>
+  <si>
     <t>刀疤技能 1 投掷物效果计算</t>
   </si>
   <si>
     <t>日炎效果计算</t>
   </si>
   <si>
+    <t>1,250,1</t>
+  </si>
+  <si>
     <t>3环满层效果计算</t>
   </si>
   <si>
@@ -178,7 +235,7 @@
     <t>概率回血效果计算</t>
   </si>
   <si>
-    <t>20,-1000,1</t>
+    <t>20,-500,1</t>
   </si>
 </sst>
 </file>
@@ -811,24 +868,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1181,371 +1247,622 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:8">
-      <c r="A3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="93" customHeight="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>4001001</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>15008004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15008006</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>4001002</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>15008005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15008006</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>4001003</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>15008005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+        <v>15008006</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>4001004</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>15008005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>15008006</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <v>4001005</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>15008006</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>4002001</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>15008006</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4002002</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>15008006</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>4002010</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>15008005</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>4002001</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="F23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>15008006</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>4002011</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>15008006</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>15008005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>4002010</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>15008005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <v>4002020</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>15008005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
+      <c r="C26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>15008006</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
         <v>4002021</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>15008005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+      <c r="C27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>15008006</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
         <v>4002022</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>15008005</v>
+      <c r="C28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>15008013</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -190,34 +190,34 @@
     <t>上官翎技能1投掷物效果计算</t>
   </si>
   <si>
-    <t>0,100,1|1,400,1|3,100,2</t>
+    <t>0,100,1|1,400,1</t>
   </si>
   <si>
     <t>上官翎技能2击晕伤害计算</t>
   </si>
   <si>
+    <t>刀疤技能位移伤害计算</t>
+  </si>
+  <si>
+    <t>0,50000,1</t>
+  </si>
+  <si>
+    <t>唐依技能4流血间隔伤害计算</t>
+  </si>
+  <si>
+    <t>怪物1普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>怪物1技能1投掷物效果计算</t>
+  </si>
+  <si>
+    <t>刀疤普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>刀疤技能 1 投掷物效果计算</t>
+  </si>
+  <si>
     <t>1,500,1</t>
-  </si>
-  <si>
-    <t>刀疤技能位移伤害计算</t>
-  </si>
-  <si>
-    <t>唐依技能4流血间隔伤害计算</t>
-  </si>
-  <si>
-    <t>怪物1普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>怪物1技能1投掷物效果计算</t>
-  </si>
-  <si>
-    <t>0,100,1|1,400,1</t>
-  </si>
-  <si>
-    <t>刀疤普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>刀疤技能 1 投掷物效果计算</t>
   </si>
   <si>
     <t>日炎效果计算</t>
@@ -1252,7 +1252,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1492,16 +1492,16 @@
         <v>4001004</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1698,10 +1698,10 @@
         <v>4002010</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="9">
         <v>2</v>
@@ -1733,16 +1733,16 @@
         <v>4002011</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="G24">
         <v>1</v>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820" tabRatio="601"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -205,6 +205,18 @@
     <t>唐依技能4流血间隔伤害计算</t>
   </si>
   <si>
+    <t>唐依 Q 技能伤害</t>
+  </si>
+  <si>
+    <t>唐依q技能伤害</t>
+  </si>
+  <si>
+    <t>0,350,1|1,500,1</t>
+  </si>
+  <si>
+    <t>唐依 W 技能伤害</t>
+  </si>
+  <si>
     <t>怪物1普通攻击投掷物效果计算</t>
   </si>
   <si>
@@ -236,6 +248,12 @@
   </si>
   <si>
     <t>20,-500,1</t>
+  </si>
+  <si>
+    <t>上官唯普通命中群攻计算</t>
+  </si>
+  <si>
+    <t>1,100000,1</t>
   </si>
 </sst>
 </file>
@@ -1247,12 +1265,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1264,7 +1282,8 @@
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1484,59 +1503,30 @@
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>4001004</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>15008006</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="8" spans="3:6">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>4001005</v>
+        <v>4001004</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1554,30 +1544,88 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>4001005</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>15008006</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>4001006</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>15008006</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>4002001</v>
+        <v>4001007</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
@@ -1601,40 +1649,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>4002002</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>15008006</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="13" spans="3:6">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" s="8"/>
@@ -1654,17 +1673,75 @@
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>4002001</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>15008006</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4002002</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>15008006</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="8"/>
@@ -1690,178 +1767,243 @@
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>4002010</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>15008006</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>4002011</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>15008006</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>4002020</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>15008006</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>4002021</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>15008006</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="23" spans="3:6">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28">
+        <v>4002010</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>15008006</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>4002011</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>15008006</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>4002020</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>15008006</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>4002021</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>15008006</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
         <v>4002022</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="C33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>15008013</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>4002023</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>15008006</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -187,13 +187,19 @@
     <t>hit_pos</t>
   </si>
   <si>
-    <t>上官翎技能1投掷物效果计算</t>
+    <t>上官翎 Q 技能 投掷物效果计算</t>
   </si>
   <si>
     <t>0,100,1|1,400,1</t>
   </si>
   <si>
-    <t>上官翎技能2击晕伤害计算</t>
+    <t>上官翎 W 技能 击晕伤害计算</t>
+  </si>
+  <si>
+    <t>上官翎 E 技能位移伤害计算</t>
+  </si>
+  <si>
+    <t>1,1500,1</t>
   </si>
   <si>
     <t>刀疤技能位移伤害计算</t>
@@ -217,12 +223,30 @@
     <t>唐依 W 技能伤害</t>
   </si>
   <si>
+    <t>唐依 R 技能伤害</t>
+  </si>
+  <si>
     <t>怪物1普通攻击投掷物效果计算</t>
   </si>
   <si>
     <t>怪物1技能1投掷物效果计算</t>
   </si>
   <si>
+    <t>近战怪物 技能1 区域效果计算</t>
+  </si>
+  <si>
+    <t>0,100,1|1,1000000,1</t>
+  </si>
+  <si>
+    <t>怪物2普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>怪物2 技能计算</t>
+  </si>
+  <si>
+    <t>1,4000,1</t>
+  </si>
+  <si>
     <t>刀疤普通攻击投掷物效果计算</t>
   </si>
   <si>
@@ -254,6 +278,15 @@
   </si>
   <si>
     <t>1,100000,1</t>
+  </si>
+  <si>
+    <t>大怪 1 3环满层效果 群伤计算</t>
+  </si>
+  <si>
+    <t>1,10000,1</t>
+  </si>
+  <si>
+    <t>大怪 1 技能 周围群伤计算</t>
   </si>
 </sst>
 </file>
@@ -1265,12 +1298,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1497,11 +1530,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4001050</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>15008006</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="8"/>
@@ -1517,16 +1579,16 @@
         <v>4001004</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1552,10 +1614,10 @@
         <v>4001005</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9">
         <v>2</v>
@@ -1587,16 +1649,16 @@
         <v>4001006</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1622,10 +1684,10 @@
         <v>4001007</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
@@ -1649,11 +1711,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4001008</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>15008019</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" s="8"/>
@@ -1681,10 +1772,10 @@
         <v>4002001</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
@@ -1716,10 +1807,10 @@
         <v>4002002</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
@@ -1749,12 +1840,6 @@
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
-    </row>
     <row r="21" spans="3:6">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1767,11 +1852,40 @@
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>4002004</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>15008006</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="8"/>
@@ -1779,17 +1893,75 @@
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>4002006</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>15008006</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>4002007</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>15008006</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="8"/>
@@ -1797,94 +1969,42 @@
       <c r="E27" s="9"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>4002010</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="9">
-        <v>2</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>15008006</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>4002011</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>15008006</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="28" spans="3:6">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
-        <v>4002020</v>
+        <v>4002010</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1907,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>4002021</v>
+        <v>4002011</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1937,59 +2057,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>4002022</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>15008013</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34">
-        <v>4002023</v>
+        <v>4002020</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2004,6 +2089,181 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>4002021</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>15008006</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>4002022</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>15008013</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>4002023</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>15008020</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>4002030</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>15008020</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>4002031</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>15008020</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -452,12 +452,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1301,9 +1301,9 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>15008006</v>
+        <v>15008027</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I31">
         <v>0</v>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -190,61 +190,70 @@
     <t>上官翎 Q 技能 投掷物效果计算</t>
   </si>
   <si>
+    <t>1,500,1</t>
+  </si>
+  <si>
+    <t>上官翎 W 技能 击晕伤害计算</t>
+  </si>
+  <si>
+    <t>1,800,1</t>
+  </si>
+  <si>
+    <t>上官翎 E 技能位移伤害计算</t>
+  </si>
+  <si>
+    <t>刀疤技能位移伤害计算</t>
+  </si>
+  <si>
+    <t>0,50000,1</t>
+  </si>
+  <si>
+    <t>唐依技能4流血间隔伤害计算</t>
+  </si>
+  <si>
+    <t>1,400,1</t>
+  </si>
+  <si>
+    <t>唐依 Q 技能伤害</t>
+  </si>
+  <si>
+    <t>唐依q技能伤害</t>
+  </si>
+  <si>
+    <t>1,1500,1</t>
+  </si>
+  <si>
+    <t>唐依 W 技能伤害</t>
+  </si>
+  <si>
+    <t>1,300,1</t>
+  </si>
+  <si>
+    <t>唐依 R 技能伤害</t>
+  </si>
+  <si>
+    <t>1,2000,1</t>
+  </si>
+  <si>
+    <t>怪物1普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>怪物1技能1投掷物效果计算</t>
+  </si>
+  <si>
     <t>0,100,1|1,400,1</t>
   </si>
   <si>
-    <t>上官翎 W 技能 击晕伤害计算</t>
-  </si>
-  <si>
-    <t>上官翎 E 技能位移伤害计算</t>
-  </si>
-  <si>
-    <t>1,1500,1</t>
-  </si>
-  <si>
-    <t>刀疤技能位移伤害计算</t>
-  </si>
-  <si>
-    <t>0,50000,1</t>
-  </si>
-  <si>
-    <t>唐依技能4流血间隔伤害计算</t>
-  </si>
-  <si>
-    <t>唐依 Q 技能伤害</t>
-  </si>
-  <si>
-    <t>唐依q技能伤害</t>
-  </si>
-  <si>
-    <t>0,350,1|1,500,1</t>
-  </si>
-  <si>
-    <t>唐依 W 技能伤害</t>
-  </si>
-  <si>
-    <t>唐依 R 技能伤害</t>
-  </si>
-  <si>
-    <t>怪物1普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>怪物1技能1投掷物效果计算</t>
-  </si>
-  <si>
     <t>近战怪物 技能1 区域效果计算</t>
   </si>
   <si>
-    <t>0,100,1|1,1000000,1</t>
-  </si>
-  <si>
     <t>怪物2普通攻击投掷物效果计算</t>
   </si>
   <si>
     <t>怪物2 技能计算</t>
   </si>
   <si>
-    <t>1,4000,1</t>
+    <t>1,2500,1</t>
   </si>
   <si>
     <t>刀疤普通攻击投掷物效果计算</t>
@@ -253,9 +262,6 @@
     <t>刀疤技能 1 投掷物效果计算</t>
   </si>
   <si>
-    <t>1,500,1</t>
-  </si>
-  <si>
     <t>日炎效果计算</t>
   </si>
   <si>
@@ -271,19 +277,13 @@
     <t>概率回血效果计算</t>
   </si>
   <si>
-    <t>20,-500,1</t>
+    <t>20,-200,1</t>
   </si>
   <si>
     <t>上官唯普通命中群攻计算</t>
   </si>
   <si>
-    <t>1,100000,1</t>
-  </si>
-  <si>
     <t>大怪 1 3环满层效果 群伤计算</t>
-  </si>
-  <si>
-    <t>1,10000,1</t>
   </si>
   <si>
     <t>大怪 1 技能 周围群伤计算</t>
@@ -452,12 +452,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1301,9 +1301,9 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1538,16 +1538,16 @@
         <v>4001050</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1649,16 +1649,16 @@
         <v>4001006</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1684,16 +1684,16 @@
         <v>4001007</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1719,16 +1719,16 @@
         <v>4001008</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1772,10 +1772,10 @@
         <v>4002001</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
@@ -1807,16 +1807,16 @@
         <v>4002002</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1860,16 +1860,16 @@
         <v>4002004</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1901,10 +1901,10 @@
         <v>4002006</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" s="9">
         <v>2</v>
@@ -1936,16 +1936,16 @@
         <v>4002007</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E26" s="9">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1995,10 +1995,10 @@
         <v>4002010</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E31" s="9">
         <v>2</v>
@@ -2030,16 +2030,16 @@
         <v>4002011</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2065,16 +2065,16 @@
         <v>4002020</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2100,16 +2100,16 @@
         <v>4002021</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2135,16 +2135,16 @@
         <v>4002022</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2170,16 +2170,16 @@
         <v>4002023</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" s="9">
         <v>0</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2205,16 +2205,16 @@
         <v>4002030</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2281,7 +2281,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2298,7 +2298,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="601"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -287,12 +300,18 @@
   </si>
   <si>
     <t>大怪 1 技能 周围群伤计算</t>
+  </si>
+  <si>
+    <t>测试道具效果：加血</t>
+  </si>
+  <si>
+    <t>0,-500,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -305,34 +324,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,14 +340,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,6 +379,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,7 +444,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,49 +497,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,121 +635,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,21 +688,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -716,6 +720,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,148 +793,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -953,52 +972,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1298,12 +1317,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2264,6 +2283,41 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>4005001</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>15008013</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;List&lt;int&gt;&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -471,12 +474,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1320,9 +1323,9 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1391,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1411,37 +1414,37 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="93" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1452,16 +1455,16 @@
         <v>4001001</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="9">
         <v>2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1476,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1487,16 +1490,16 @@
         <v>4001002</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1511,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1522,16 +1525,16 @@
         <v>4001003</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1546,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1557,16 +1560,16 @@
         <v>4001050</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1581,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="3:6">
@@ -1598,16 +1601,16 @@
         <v>4001004</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1622,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1633,16 +1636,16 @@
         <v>4001005</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="9">
         <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1657,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1668,16 +1671,16 @@
         <v>4001006</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1692,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1703,16 +1706,16 @@
         <v>4001007</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1727,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1738,16 +1741,16 @@
         <v>4001008</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1762,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="3:6">
@@ -1791,16 +1794,16 @@
         <v>4002001</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1815,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1826,16 +1829,16 @@
         <v>4002002</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1850,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -1879,16 +1882,16 @@
         <v>4002004</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1903,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -1920,16 +1923,16 @@
         <v>4002006</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="9">
         <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1944,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1955,16 +1958,16 @@
         <v>4002007</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="9">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1979,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:6">
@@ -2014,16 +2017,16 @@
         <v>4002010</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="9">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2038,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2049,16 +2052,16 @@
         <v>4002011</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2073,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2084,16 +2087,16 @@
         <v>4002020</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2108,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2119,16 +2122,16 @@
         <v>4002021</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2143,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2154,16 +2157,16 @@
         <v>4002022</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2178,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2189,16 +2192,16 @@
         <v>4002023</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E37" s="9">
         <v>0</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2213,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2224,16 +2227,16 @@
         <v>4002030</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2248,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2259,16 +2262,16 @@
         <v>4002031</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" s="9">
         <v>0</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2283,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2294,16 +2297,16 @@
         <v>4005001</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2318,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/CalculateEffect.xlsx
+++ b/data_table/CalculateEffect.xlsx
@@ -176,7 +176,7 @@
     <t>施加效果的目标类型</t>
   </si>
   <si>
-    <t>附加伤害组</t>
+    <t>附加伤害组（, | ）</t>
   </si>
   <si>
     <t xml:space="preserve">最终的效果类型 1 物理伤害 2 法强伤害 </t>
@@ -474,12 +474,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1323,9 +1323,9 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
